--- a/pred_ohlcv/54_21/2020-01-20 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-86808.82515594848</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-85558.14265594848</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-88608.54415594848</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-88593.54415594848</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-145008.6498559485</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-133922.0220559485</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-201484.8213559485</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-201484.8213559485</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-203723.0995269854</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-203723.0995269854</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-201002.1185269854</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-201002.1185269854</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-201697.8233269854</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-203447.2869269854</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-200396.8853269854</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-200555.5513269854</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-200555.5513269854</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-200571.5513269854</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1260116.647629478</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1257116.647629478</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1212776.252429478</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1212776.252429478</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1212620.661375165</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1211315.038975165</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1220080.938175165</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1301321.189275165</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1270329.582275165</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>7869670.417724835</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>22889452.17669472</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>22889413.36929472</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>22889413.36929472</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>22808224.57039472</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>22813837.29399472</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>22812658.63219472</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>22815973.92799472</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>22815973.92799472</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>22815067.98459472</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>22799311.69749472</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>22829111.69749472</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>22635630.34189472</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>22635613.34189472</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>22636613.34189472</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>22622537.93719472</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>22627358.91099472</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>22677155.55699472</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>22627358.91099472</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>22633133.21239472</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>22633033.21239472</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>23042430.83259472</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>23016988.88689471</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>23017004.48759471</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>23028792.96599471</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>23007248.63379471</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-86808.82515594848</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-85558.14265594848</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-88608.54415594848</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-88593.54415594848</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-145008.6498559485</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-133922.0220559485</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-201484.8213559485</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-203723.0995269854</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-201002.1185269854</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-201002.1185269854</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-201697.8233269854</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-203447.2869269854</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-200396.8853269854</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-200555.5513269854</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-200571.5513269854</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-88250.91692947774</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-88250.91692947774</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-204537.4298294777</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1260116.647629478</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1257116.647629478</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1212776.252429478</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1212776.252429478</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1212776.252429478</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1212620.661375165</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1212620.661375165</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1211315.038975165</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1220080.938175165</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1217554.568975165</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1217554.568975165</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1301321.189275165</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1270329.582275165</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>7869670.417724835</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>7069393.618924835</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>22889452.17669472</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>22889413.36929472</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>22889413.36929472</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>22808224.57039472</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>22813837.29399472</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>22812658.63219472</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>22815973.92799472</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>22815973.92799472</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>22815067.98459472</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>22799311.69749472</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>22829111.69749472</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>22635630.34189472</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>22635613.34189472</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>22636613.34189472</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>22622537.93719472</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>22627358.91099472</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>22677155.55699472</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>22627358.91099472</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>22633133.21239472</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>22633033.21239472</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>23016988.88689471</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>23017004.48759471</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>23028792.96599471</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>23007248.63379471</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
